--- a/data/trans_orig/P25C$cursos_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25C$cursos_2023-Habitat-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5357</v>
+        <v>4702</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008176374163968247</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04361201421038656</v>
+        <v>0.03827995263975392</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4147</v>
+        <v>4631</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.005716440944410154</v>
+        <v>0.005716440944410153</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02360437068080855</v>
+        <v>0.02636271324195524</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>2985</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10043</v>
+        <v>8593</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02430096892672446</v>
+        <v>0.02430096892672445</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00760601979919292</v>
+        <v>0.007653221618121837</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08176290434729426</v>
+        <v>0.06995866469468304</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2835</v>
+        <v>2855</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01060994541142472</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05364110854831934</v>
+        <v>0.05401325419497727</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -846,19 +846,19 @@
         <v>3546</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1148</v>
+        <v>986</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9783</v>
+        <v>8868</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02018190552776041</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006536235111469629</v>
+        <v>0.005613279954000948</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05568414587805691</v>
+        <v>0.05047894770110782</v>
       </c>
     </row>
     <row r="6">
@@ -878,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3858</v>
+        <v>3489</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.005625139681726139</v>
+        <v>0.005625139681726138</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03141398541017782</v>
+        <v>0.02840841798113556</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4106</v>
+        <v>3347</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.003932767526264895</v>
+        <v>0.003932767526264894</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02337010262525752</v>
+        <v>0.01904933537000457</v>
       </c>
     </row>
     <row r="7">
@@ -938,19 +938,19 @@
         <v>1580</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5038</v>
+        <v>4723</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01286622561729472</v>
+        <v>0.01286622561729471</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003445332007708704</v>
+        <v>0.003460701368140738</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04101947234334221</v>
+        <v>0.03845069235092852</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2841</v>
+        <v>2731</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01068476522995199</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05375101480352452</v>
+        <v>0.05166158927835066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -980,19 +980,19 @@
         <v>2145</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>562</v>
+        <v>706</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5372</v>
+        <v>5655</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0122099143029688</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003201279467842581</v>
+        <v>0.004016743717881624</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03057740237266249</v>
+        <v>0.03218934965385873</v>
       </c>
     </row>
     <row r="8">
@@ -1009,19 +1009,19 @@
         <v>113074</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104602</v>
+        <v>102700</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>117625</v>
+        <v>117793</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9205952643537917</v>
+        <v>0.9205952643537916</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8516183918324061</v>
+        <v>0.8361337619622817</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9576487991353424</v>
+        <v>0.9590183596494389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -1030,19 +1030,19 @@
         <v>51342</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48669</v>
+        <v>48690</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52478</v>
+        <v>52466</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9713476986857261</v>
+        <v>0.9713476986857259</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9207863442106569</v>
+        <v>0.9211841120738818</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.992842035703525</v>
+        <v>0.992613554084145</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>227</v>
@@ -1051,19 +1051,19 @@
         <v>164415</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>155308</v>
+        <v>154926</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>169993</v>
+        <v>169492</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9358645752589536</v>
+        <v>0.9358645752589534</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8840306028136408</v>
+        <v>0.881856148115476</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9676158747336576</v>
+        <v>0.9647672701863093</v>
       </c>
     </row>
     <row r="9">
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13196</v>
+        <v>13723</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02843602725649488</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1074374739573608</v>
+        <v>0.1117230009099787</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12146</v>
+        <v>13571</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01988080134856482</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06913359882660358</v>
+        <v>0.07724631998976965</v>
       </c>
     </row>
     <row r="10">
@@ -1159,16 +1159,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2409</v>
+        <v>1925</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.00735759067289737</v>
+        <v>0.007357590672897369</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04557105017136533</v>
+        <v>0.03642368463382929</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2247</v>
+        <v>1974</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002213595091077257</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01278810868733382</v>
+        <v>0.0112373115814078</v>
       </c>
     </row>
     <row r="11">
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5160</v>
+        <v>5221</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006085624075388519</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03017816281652369</v>
+        <v>0.0305337780363241</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1231,19 +1231,19 @@
         <v>2384</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5407</v>
+        <v>5526</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02647005266928902</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006972022740893657</v>
+        <v>0.006946346410094423</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06003211654432449</v>
+        <v>0.06135871097936665</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1252,19 +1252,19 @@
         <v>3425</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1141</v>
+        <v>1234</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7961</v>
+        <v>8320</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01311788330336424</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004370521414226817</v>
+        <v>0.004727642434557406</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03049516616848843</v>
+        <v>0.03186892675407934</v>
       </c>
     </row>
     <row r="12">
@@ -1281,19 +1281,19 @@
         <v>7319</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2918</v>
+        <v>3354</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15902</v>
+        <v>15950</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04280201288238792</v>
+        <v>0.04280201288238793</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01706523377114041</v>
+        <v>0.01961519065862901</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09299671749733118</v>
+        <v>0.09327269202055136</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1302,19 +1302,19 @@
         <v>2978</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7081</v>
+        <v>6935</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03306413881159646</v>
+        <v>0.03306413881159645</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00803943779858061</v>
+        <v>0.008247516944928129</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07862133517712611</v>
+        <v>0.07700406290040594</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -1323,19 +1323,19 @@
         <v>10297</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4902</v>
+        <v>5090</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18171</v>
+        <v>17908</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03944262243002668</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01877827708363785</v>
+        <v>0.01949617471285991</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06960527182201268</v>
+        <v>0.0685975275810794</v>
       </c>
     </row>
     <row r="13">
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3889</v>
+        <v>4190</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01396028169838405</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04318278397318178</v>
+        <v>0.04652464467823537</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4973</v>
+        <v>4418</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004816044724843418</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0190486344005986</v>
+        <v>0.01692485046619493</v>
       </c>
     </row>
     <row r="14">
@@ -1415,19 +1415,19 @@
         <v>3252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1220</v>
+        <v>1203</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7122</v>
+        <v>7525</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01901476963350763</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007137093795464796</v>
+        <v>0.007034060663756089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04164653659243001</v>
+        <v>0.04400687070513049</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1436,19 +1436,19 @@
         <v>2310</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6060</v>
+        <v>5873</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02564526810983961</v>
+        <v>0.0256452681098396</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007337461524645672</v>
+        <v>0.007086241274542156</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06728527544579384</v>
+        <v>0.06520801976264198</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -1457,19 +1457,19 @@
         <v>5561</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2606</v>
+        <v>2488</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10544</v>
+        <v>10383</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02130217170030957</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009982462452297454</v>
+        <v>0.009529061449066878</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04038877984355542</v>
+        <v>0.03977163212626803</v>
       </c>
     </row>
     <row r="15">
@@ -1486,19 +1486,19 @@
         <v>154894</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>145736</v>
+        <v>145858</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>161237</v>
+        <v>161286</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9058102867463305</v>
+        <v>0.9058102867463307</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8522573843596237</v>
+        <v>0.8529711164624029</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9429062871771272</v>
+        <v>0.9431917999576321</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>118</v>
@@ -1507,19 +1507,19 @@
         <v>82421</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>77714</v>
+        <v>77375</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>86205</v>
+        <v>85622</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.9151711683944915</v>
+        <v>0.9151711683944913</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8629049291848372</v>
+        <v>0.8591386262706414</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9571819872081457</v>
+        <v>0.9507126090070912</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>293</v>
@@ -1528,19 +1528,19 @@
         <v>237315</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>227250</v>
+        <v>226804</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>245352</v>
+        <v>245490</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.9090396216305061</v>
+        <v>0.9090396216305062</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8704876753010083</v>
+        <v>0.8687760857182075</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.939825902913043</v>
+        <v>0.9403545877987749</v>
       </c>
     </row>
     <row r="16">
@@ -1557,19 +1557,19 @@
         <v>4305</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1218</v>
+        <v>1191</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11532</v>
+        <v>10736</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0251776218393877</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007125547450489992</v>
+        <v>0.006967321619154757</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06744132473332086</v>
+        <v>0.06278571827838401</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1578,19 +1578,19 @@
         <v>3765</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11387</v>
+        <v>10753</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0418105105029004</v>
+        <v>0.04181051050290038</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01520444425189664</v>
+        <v>0.01516961316361578</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1264344515609577</v>
+        <v>0.1193982318634115</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1599,19 +1599,19 @@
         <v>8071</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3837</v>
+        <v>3647</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16010</v>
+        <v>17375</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03091566763513196</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01469772341461099</v>
+        <v>0.0139716554678325</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06132532088809473</v>
+        <v>0.06655696286232241</v>
       </c>
     </row>
     <row r="17">
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5889</v>
+        <v>6071</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.009986602169920948</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03444074555149493</v>
+        <v>0.03550334992492497</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6811</v>
+        <v>5729</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.006541405021418932</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02609003154880923</v>
+        <v>0.0219467685355826</v>
       </c>
     </row>
     <row r="18">
@@ -1698,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5744</v>
+        <v>5577</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.00690697563580657</v>
+        <v>0.006906975635806571</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.034911679365122</v>
+        <v>0.03389382932047835</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1716,19 +1716,19 @@
         <v>2400</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7201</v>
+        <v>7032</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.02870629402831358</v>
+        <v>0.02870629402831359</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007283397572865381</v>
+        <v>0.007382960207080828</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08612142139153658</v>
+        <v>0.08410870024704122</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -1737,19 +1737,19 @@
         <v>3537</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1077</v>
+        <v>1099</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>9504</v>
+        <v>8541</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01425206996361816</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004341027738792702</v>
+        <v>0.004428060774976733</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03830191482378337</v>
+        <v>0.03441948394194617</v>
       </c>
     </row>
     <row r="19">
@@ -1766,19 +1766,19 @@
         <v>14355</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8299</v>
+        <v>8098</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23522</v>
+        <v>23179</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.08724456095286927</v>
+        <v>0.08724456095286928</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05043624744270946</v>
+        <v>0.04921534445759283</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1429621906105031</v>
+        <v>0.1408749451175519</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1787,19 +1787,19 @@
         <v>2931</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>716</v>
+        <v>947</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6900</v>
+        <v>6877</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03505734001072894</v>
+        <v>0.03505734001072896</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008566518377451144</v>
+        <v>0.01132156462447896</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08253072799674824</v>
+        <v>0.08225677961552269</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -1808,19 +1808,19 @@
         <v>17286</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10136</v>
+        <v>10456</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26158</v>
+        <v>26007</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06966052214832932</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04084805261471956</v>
+        <v>0.04213716055764836</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1054149813444323</v>
+        <v>0.1048046628323364</v>
       </c>
     </row>
     <row r="20">
@@ -1840,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5300</v>
+        <v>4896</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.005901771532962478</v>
+        <v>0.005901771532962479</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03221312448888118</v>
+        <v>0.02975635615832706</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1858,19 +1858,19 @@
         <v>2159</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7387</v>
+        <v>5829</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.02581644189769573</v>
+        <v>0.02581644189769574</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008369818685939228</v>
+        <v>0.00816352471109324</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08835133848449406</v>
+        <v>0.06971105880048048</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1879,19 +1879,19 @@
         <v>3130</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7399</v>
+        <v>7959</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01261184978873576</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002966623575977505</v>
+        <v>0.0029684479063307</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02981868057932711</v>
+        <v>0.03207531210341361</v>
       </c>
     </row>
     <row r="21">
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6534</v>
+        <v>6070</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01032626530332888</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03971449207140811</v>
+        <v>0.0368942074025513</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4319</v>
+        <v>4860</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01683482134846668</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05165429453078648</v>
+        <v>0.05812496948464847</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -1950,19 +1950,19 @@
         <v>3107</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8058</v>
+        <v>7890</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01251926772792843</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003959643990521746</v>
+        <v>0.003951721817828085</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0324733739815399</v>
+        <v>0.03179650417584496</v>
       </c>
     </row>
     <row r="22">
@@ -1979,19 +1979,19 @@
         <v>142603</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>132532</v>
+        <v>132954</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>150501</v>
+        <v>150643</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8667054959618712</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8054940475763834</v>
+        <v>0.8080587025812979</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9147057945921377</v>
+        <v>0.9155679079116275</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>96</v>
@@ -2000,19 +2000,19 @@
         <v>75439</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>69748</v>
+        <v>69518</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>79344</v>
+        <v>79376</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9022776382637733</v>
+        <v>0.9022776382637736</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8342048158739378</v>
+        <v>0.8314547827823501</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9489824475751825</v>
+        <v>0.9493560302490137</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>240</v>
@@ -2021,19 +2021,19 @@
         <v>218043</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>206775</v>
+        <v>208136</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>226661</v>
+        <v>227384</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8786912257881586</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8332841038428328</v>
+        <v>0.8387657312388792</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9134204260193679</v>
+        <v>0.9163355888666845</v>
       </c>
     </row>
     <row r="23">
@@ -2050,19 +2050,19 @@
         <v>4700</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1775</v>
+        <v>1660</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11052</v>
+        <v>10662</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02856336951603316</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01078927424426353</v>
+        <v>0.01008781085450529</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06716889949762128</v>
+        <v>0.06479940739562243</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -2071,19 +2071,19 @@
         <v>2074</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5658</v>
+        <v>5119</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02480785841504127</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.007809243640856834</v>
+        <v>0.007828698690917207</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06766798081521226</v>
+        <v>0.06122773038115219</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -2092,19 +2092,19 @@
         <v>6774</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2747</v>
+        <v>2689</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12931</v>
+        <v>12927</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02729798209477275</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01107143273604048</v>
+        <v>0.01083477068119645</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0521086766460828</v>
+        <v>0.05209585998515244</v>
       </c>
     </row>
     <row r="24">
@@ -2175,16 +2175,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4958</v>
+        <v>4657</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.006951992134002596</v>
+        <v>0.006951992134002597</v>
       </c>
       <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02455977921557653</v>
+        <v>0.02307229150338374</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4686</v>
+        <v>4607</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.009363193222378902</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03362086612600585</v>
+        <v>0.03306050656482992</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2214,19 +2214,19 @@
         <v>2708</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6631</v>
+        <v>6101</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.007936786294283696</v>
+        <v>0.007936786294283694</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001949409299903804</v>
+        <v>0.001896203313815447</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01943224099807115</v>
+        <v>0.01788047775114063</v>
       </c>
     </row>
     <row r="26">
@@ -2243,19 +2243,19 @@
         <v>3046</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8564</v>
+        <v>8505</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01509222139688341</v>
+        <v>0.01509222139688342</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00450499455032945</v>
+        <v>0.004401920039490586</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0424282894226812</v>
+        <v>0.04213518481672852</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2264,19 +2264,19 @@
         <v>3418</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8289</v>
+        <v>7999</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02452639263190444</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009621363636233098</v>
+        <v>0.009555563834267412</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05947835629390767</v>
+        <v>0.05739827862079878</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -2285,19 +2285,19 @@
         <v>6465</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2839</v>
+        <v>2873</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12451</v>
+        <v>12090</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.0189453702628691</v>
+        <v>0.01894537026286911</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008320090083115371</v>
+        <v>0.008419072252811938</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0364895878592713</v>
+        <v>0.03543033117579215</v>
       </c>
     </row>
     <row r="27">
@@ -2314,19 +2314,19 @@
         <v>3261</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>928</v>
+        <v>1285</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8870</v>
+        <v>7994</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01615638642191722</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.004598380973714858</v>
+        <v>0.006363740802295219</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04393975372975401</v>
+        <v>0.03960054887664748</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -2335,19 +2335,19 @@
         <v>3677</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1650</v>
+        <v>1375</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8086</v>
+        <v>8105</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02638157523584254</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01183822619177605</v>
+        <v>0.009868546786965027</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05802181332262587</v>
+        <v>0.05815413549494219</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>10</v>
@@ -2356,19 +2356,19 @@
         <v>6938</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3346</v>
+        <v>3663</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>12811</v>
+        <v>12628</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02033260643121813</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.009805285156075703</v>
+        <v>0.01073399149054151</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03754464836244333</v>
+        <v>0.03700835310967047</v>
       </c>
     </row>
     <row r="28">
@@ -2385,19 +2385,19 @@
         <v>3814</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1348</v>
+        <v>1409</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8522</v>
+        <v>8205</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0188959595470657</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006678317827498293</v>
+        <v>0.006981136001347673</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04222015341340837</v>
+        <v>0.04064769001656181</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -2406,19 +2406,19 @@
         <v>6175</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2791</v>
+        <v>2693</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11391</v>
+        <v>11423</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04431008119138458</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02002674192864855</v>
+        <v>0.01932298462350529</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08173887537001447</v>
+        <v>0.0819685666656087</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>14</v>
@@ -2427,19 +2427,19 @@
         <v>9989</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5642</v>
+        <v>5690</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>16073</v>
+        <v>15953</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.02927571538935102</v>
+        <v>0.02927571538935103</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01653587667575358</v>
+        <v>0.01667577166912637</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04710389254974151</v>
+        <v>0.0467535337954035</v>
       </c>
     </row>
     <row r="29">
@@ -2456,19 +2456,19 @@
         <v>180084</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>168694</v>
+        <v>168270</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>188086</v>
+        <v>187287</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8921342128580375</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8357085105641113</v>
+        <v>0.8336116419337342</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9317798456923398</v>
+        <v>0.9278183432612156</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>176</v>
@@ -2477,19 +2477,19 @@
         <v>120999</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>114397</v>
+        <v>114514</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>126787</v>
+        <v>127413</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8682317806932959</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8208540763071772</v>
+        <v>0.8216938669396172</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9097625106608953</v>
+        <v>0.9142528613832253</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>398</v>
@@ -2498,19 +2498,19 @@
         <v>301083</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>289589</v>
+        <v>288640</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>311141</v>
+        <v>310228</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8823718683875464</v>
+        <v>0.8823718683875467</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8486881190326097</v>
+        <v>0.8459060922696601</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.911849266716921</v>
+        <v>0.9091744122071329</v>
       </c>
     </row>
     <row r="30">
@@ -2527,19 +2527,19 @@
         <v>11932</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6388</v>
+        <v>6339</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21806</v>
+        <v>22799</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05911089542500583</v>
+        <v>0.05911089542500584</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03164664861515405</v>
+        <v>0.03140518462892586</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1080283132594221</v>
+        <v>0.1129483182574984</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2548,19 +2548,19 @@
         <v>5659</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2908</v>
+        <v>2820</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>10241</v>
+        <v>10409</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04060470253629535</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02086951971766933</v>
+        <v>0.02023198826770096</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0734859776889701</v>
+        <v>0.07468981394240104</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>22</v>
@@ -2569,19 +2569,19 @@
         <v>17591</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>11120</v>
+        <v>11219</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>27712</v>
+        <v>28554</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05155250853902853</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03258964599823089</v>
+        <v>0.03287859222256534</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08121478350992417</v>
+        <v>0.08368220435229395</v>
       </c>
     </row>
     <row r="31">
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3104</v>
+        <v>2953</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.002830202598233539</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01537950300386609</v>
+        <v>0.0146295878155275</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3249</v>
+        <v>2717</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001674277858240306</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.009520799737896197</v>
+        <v>0.007962876577380373</v>
       </c>
     </row>
     <row r="32">
@@ -2665,19 +2665,19 @@
         <v>4585</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1657</v>
+        <v>1701</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10489</v>
+        <v>10573</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006944163213848445</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002509826645403368</v>
+        <v>0.002576486644831449</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01588789080339479</v>
+        <v>0.01601502253598094</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -2686,19 +2686,19 @@
         <v>6089</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2691</v>
+        <v>3036</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12252</v>
+        <v>11487</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01664149189721819</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007353898217040997</v>
+        <v>0.008297108238052317</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03348647827274025</v>
+        <v>0.03139476595046616</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>14</v>
@@ -2707,19 +2707,19 @@
         <v>10674</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5852</v>
+        <v>5666</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>17707</v>
+        <v>17393</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01040203845404888</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005702750263908251</v>
+        <v>0.005521498094921115</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01725605125594193</v>
+        <v>0.01695029292335017</v>
       </c>
     </row>
     <row r="33">
@@ -2736,19 +2736,19 @@
         <v>27705</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>18807</v>
+        <v>18284</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>39869</v>
+        <v>40983</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.04196366107413282</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02848530698147079</v>
+        <v>0.02769325028483904</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06038681308309774</v>
+        <v>0.0620748873319604</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>14</v>
@@ -2757,19 +2757,19 @@
         <v>9888</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>5565</v>
+        <v>5729</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>16496</v>
+        <v>16188</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02702402192437316</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01520908834573048</v>
+        <v>0.01565730757290641</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04508420417013683</v>
+        <v>0.04424375359401278</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>40</v>
@@ -2778,19 +2778,19 @@
         <v>37593</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>27974</v>
+        <v>27555</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>51758</v>
+        <v>50121</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0366364818064985</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02726200476101445</v>
+        <v>0.02685426984227813</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.050441035478057</v>
+        <v>0.04884612640171865</v>
       </c>
     </row>
     <row r="34">
@@ -2807,19 +2807,19 @@
         <v>4923</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1703</v>
+        <v>2042</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10561</v>
+        <v>10164</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.00745699602364988</v>
+        <v>0.007456996023649879</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.002579617397570494</v>
+        <v>0.003092540472780464</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01599621755940292</v>
+        <v>0.0153951064767929</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -2828,19 +2828,19 @@
         <v>7092</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3895</v>
+        <v>3589</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>12764</v>
+        <v>12540</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01938400141814601</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01064531495830581</v>
+        <v>0.009809179277560988</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03488596073916921</v>
+        <v>0.03427278804969499</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>17</v>
@@ -2849,19 +2849,19 @@
         <v>12016</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7246</v>
+        <v>7133</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>18833</v>
+        <v>18652</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01170992979437918</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.007061578504998904</v>
+        <v>0.006951024410641445</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01835334350998698</v>
+        <v>0.01817702244020405</v>
       </c>
     </row>
     <row r="35">
@@ -2878,19 +2878,19 @@
         <v>10345</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6001</v>
+        <v>6084</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>16754</v>
+        <v>17066</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.0156692872289874</v>
+        <v>0.01566928722898739</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.009090066451794642</v>
+        <v>0.009215698926419028</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02537586947075615</v>
+        <v>0.02584937272819185</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>16</v>
@@ -2899,19 +2899,19 @@
         <v>10457</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5889</v>
+        <v>6505</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16020</v>
+        <v>16836</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02857999383712606</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01609507592326599</v>
+        <v>0.01777836534581995</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04378454501776376</v>
+        <v>0.04601404140220917</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>31</v>
@@ -2920,19 +2920,19 @@
         <v>20802</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>14831</v>
+        <v>14188</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>29944</v>
+        <v>28121</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0202729893588673</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01445394133288805</v>
+        <v>0.01382652726175824</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02918170949054575</v>
+        <v>0.02740549560360868</v>
       </c>
     </row>
     <row r="36">
@@ -2949,19 +2949,19 @@
         <v>590654</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>573049</v>
+        <v>572430</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>605382</v>
+        <v>605090</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.894634102091688</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8679674533782626</v>
+        <v>0.8670308574323653</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.9169416397889747</v>
+        <v>0.9164981926433304</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>470</v>
@@ -2970,19 +2970,19 @@
         <v>330202</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>319635</v>
+        <v>320604</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>338618</v>
+        <v>339063</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.9024613648130564</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8735816153412042</v>
+        <v>0.8762292197343785</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.9254627508654043</v>
+        <v>0.9266796079388769</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1158</v>
@@ -2991,19 +2991,19 @@
         <v>920856</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>902537</v>
+        <v>902541</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>938056</v>
+        <v>938174</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8974251488682274</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8795726797158098</v>
+        <v>0.8795757053328891</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.9141870674529152</v>
+        <v>0.9143024162964509</v>
       </c>
     </row>
     <row r="37">
@@ -3020,19 +3020,19 @@
         <v>24430</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>16171</v>
+        <v>15125</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>38366</v>
+        <v>37848</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.03700244563604546</v>
+        <v>0.03700244563604547</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02449291850169862</v>
+        <v>0.02290907820717243</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05811094960363285</v>
+        <v>0.05732656723024927</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>17</v>
@@ -3041,19 +3041,19 @@
         <v>11498</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7231</v>
+        <v>6600</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>18786</v>
+        <v>18528</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03142607781560275</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01976397785951483</v>
+        <v>0.01803770349200864</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05134221283591692</v>
+        <v>0.05063811536776375</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>40</v>
@@ -3062,19 +3062,19 @@
         <v>35928</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25916</v>
+        <v>26600</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>50984</v>
+        <v>50893</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.03501402337604439</v>
+        <v>0.03501402337604438</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02525629866208581</v>
+        <v>0.02592352117620974</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0496871103077462</v>
+        <v>0.0495980774712686</v>
       </c>
     </row>
     <row r="38">
@@ -3091,19 +3091,19 @@
         <v>2279</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>6603</v>
+        <v>6885</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.003451893499227466</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0008712579064322233</v>
+        <v>0.0008634239635678775</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01000150160717998</v>
+        <v>0.01042796307259804</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1586</v>
+        <v>1965</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.001062858486171529</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.004335942564322261</v>
+        <v>0.005370147835688709</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>4</v>
@@ -3133,19 +3133,19 @@
         <v>2668</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>575</v>
+        <v>622</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>7118</v>
+        <v>6997</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.002600010956173618</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0005606026291606271</v>
+        <v>0.0006062392325595361</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.006936989383118132</v>
+        <v>0.006819195980587522</v>
       </c>
     </row>
     <row r="39">
